--- a/biology/Médecine/Granulomatose_lymphomatoïde/Granulomatose_lymphomatoïde.xlsx
+++ b/biology/Médecine/Granulomatose_lymphomatoïde/Granulomatose_lymphomatoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Granulomatose_lymphomato%C3%AFde</t>
+          <t>Granulomatose_lymphomatoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La granulomatose lymphomatoïde[1] (GL) est un syndrome lymphoprolifératif rare, décrit par Liebow en 1972 et affectant principalement le poumon (80 %) mais aussi la peau (40 à 50 %) ou le système nerveux central (30 % des cas)[2]. 
-Il implique de grands lymphocytes B CD20+ atypiques, affectés par le virus d'Epstein-Barr, au sein de nombreux petits lymphocytes T CD3+ réactionnels et pouvant s’associer à de la nécrose[2].
-Son diagnostic est difficile. Il évolue, dans 7 à 47 % des cas, vers un lymphome B agressif[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La granulomatose lymphomatoïde (GL) est un syndrome lymphoprolifératif rare, décrit par Liebow en 1972 et affectant principalement le poumon (80 %) mais aussi la peau (40 à 50 %) ou le système nerveux central (30 % des cas). 
+Il implique de grands lymphocytes B CD20+ atypiques, affectés par le virus d'Epstein-Barr, au sein de nombreux petits lymphocytes T CD3+ réactionnels et pouvant s’associer à de la nécrose.
+Son diagnostic est difficile. Il évolue, dans 7 à 47 % des cas, vers un lymphome B agressif.
 </t>
         </is>
       </c>
